--- a/Dehalogenation_colorimetric_assays/Experiment2/Fluoride concentration +- SD.xlsx
+++ b/Dehalogenation_colorimetric_assays/Experiment2/Fluoride concentration +- SD.xlsx
@@ -1,30 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eawag\userdata\felderfl\My Documents\GitHub\gut_microbe_defluorination_paper\Dehalogenation_colorimetric_assays\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robinsse/Documents/github/gut_microbe_defluorination_paper/dehalogenation_colorimetric_assays/Experiment2/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0859FF34-2FF0-A742-8F32-B125DBB65BBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14250"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="14260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -36,6 +48,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -64,7 +77,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -82,7 +95,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -129,7 +142,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -155,7 +167,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-CH"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2409,7 +2421,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2435,7 +2446,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-CH"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2472,7 +2483,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-CH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="497851376"/>
@@ -2530,7 +2541,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2556,7 +2566,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-CH"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2588,7 +2598,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-CH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="497825464"/>
@@ -2629,7 +2639,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-CH"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3200,7 +3210,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3480,16 +3496,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IC2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:237" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>0</v>
       </c>
@@ -4202,7 +4218,7 @@
         <v>106.55309696980184</v>
       </c>
     </row>
-    <row r="2" spans="1:237" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
